--- a/demo_once/doc/项目图.xlsx
+++ b/demo_once/doc/项目图.xlsx
@@ -1,76 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/once/git/oryx/demo_once/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve"> 架构：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oryx2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h2o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tensflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>word2vec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）在 代码环境里修改代码编译后在原有的生产环境中使用看看效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)搭建代码环境和生产环境，映射到自己的github上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）在代码环境里增加一个自己的模块功能玩成功能；或者根据业务场景增加修改大的功能，在生产环境里跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）掌握相关的理论--&gt;而后是基本的架构--&gt;模块接口之间的连接--&gt;架构主线如何跑的-&gt;各个模块的算法为何--&gt;对算法和架构进行优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5）引入其他的开源组件，对模块之间进行整合，或者自己写一定的插件嵌入到系统里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6）掌握以上几个后--有一定水准了，根据论文或者开源社区的思想自己独立实现相关的系统原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7）继续精研理论 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>1.熟悉业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,27 +41,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市场维度交叉点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术嫁接性： 略过其他，重在机器学习，深度学习，自然语言，挖掘建模，和平台框架上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场横向优势：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新媒体广告业务选取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外项目---防止国内的bat，英语，壁垒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">前瞻性：机器学习的前瞻性 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,13 +53,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -896,53 +833,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3533775" y="5314951"/>
-          <a:ext cx="733425" cy="647699"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -989,12 +879,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1024,12 +914,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1233,116 +1123,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:Q37"/>
+  <dimension ref="C2:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="P2" s="1" t="s">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="P3" t="s">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="P4" t="s">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="P6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="Q13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="Q14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
